--- a/spreadsheets/UseCase_HingeHiddenComponents.xlsx
+++ b/spreadsheets/UseCase_HingeHiddenComponents.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATI\STIIMA-ITIA\PROGETTI\ErasmusPlus_VLFT\DEVS_VLFT\Usecase\Cosberg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\difactory\repository\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F59DED-5DD4-4793-B61E-FE8785BF41B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EE57D5-D8C3-4351-9457-E9B9C31A6BC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23160" windowHeight="8895" tabRatio="484" xr2:uid="{F487811F-0527-4F45-AB48-04B8DCD52C96}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23160" windowHeight="8895" tabRatio="484" activeTab="1" xr2:uid="{F487811F-0527-4F45-AB48-04B8DCD52C96}"/>
   </bookViews>
   <sheets>
     <sheet name="Context" sheetId="16" r:id="rId1"/>
@@ -124,9 +124,6 @@
     <t>inScene</t>
   </si>
   <si>
-    <t>http://www.ontoeng.com/factory#Artifact</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -191,6 +188,9 @@
   </si>
   <si>
     <t>Hinge.glb#Spring</t>
+  </si>
+  <si>
+    <t>https://w3id.org/ontoeng/factory#Artifact</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8466CCB2-1EC2-4D46-B8B6-6A373A69743B}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="B1" s="14" t="str">
         <f>CONCATENATE(Context!D1,B3,Context!E1,B4,Context!F1,B5,"""},",Context!G1,Assets!AU201,Context!H1,Assets!AV201,"]}")</f>
-        <v>{"context": { "UnitOfMeasureScale": 0.001,"Zup": false, "RepoPath": ""},"scene": ["Hinge_1","Hinge_2"], "assets": [{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}]}</v>
+        <v>{"context": { "UnitOfMeasureScale": 0.001,"Zup": false, "RepoPath": ""},"scene": ["Hinge_1","Hinge_2"], "assets": [{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}]}</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1143,12 +1143,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DBE1175-FFEC-4699-8890-6AAD58990405}">
   <dimension ref="A1:AX201"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4:A54"/>
       <selection pane="topRight" activeCell="A4" sqref="A4:A54"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:A54"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1252,83 +1252,83 @@
         <v>21</v>
       </c>
       <c r="AB1" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC1" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AD1" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AE1" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AF1" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AG1" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AI1" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AJ1" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AK1" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AL1" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AM1" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AN1" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AO1" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AP1" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AQ1" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AR1" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AS1" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AT1" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AU1" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AV1" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:50" s="7" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="3" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" s="44">
         <v>1</v>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="AD2" s="42" t="str">
         <f>IF(D2&lt;&gt;"",CONCATENATE(", """,D$1,""": """,D2,""""),"")</f>
-        <v>, "type": "http://www.ontoeng.com/factory#Artifact"</v>
+        <v>, "type": "https://w3id.org/ontoeng/factory#Artifact"</v>
       </c>
       <c r="AE2" s="42" t="str">
         <f>IF(E2&lt;&gt;"",CONCATENATE(", """,E$1,""": """,E2,""""),"")</f>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="AT2" s="42" t="str">
         <f>CONCATENATE(AB2,AC2,AD2,AE2,AF2,AG2,AH2,AI2,AJ2,AK2,AL2,AM2,AN2,AO2,AP2,AQ2,AR2,AS2)</f>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]}</v>
       </c>
       <c r="AU2" s="11" t="str">
         <f>IF(B2=1,CONCATENATE(IF(AU1&lt;&gt;"",CONCATENATE(AU1,","),""),"""",A2,""""),AU1)</f>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="AV2" s="6" t="str">
         <f>IF(A2&lt;&gt;"",CONCATENATE(IF(AV1&lt;&gt;"",CONCATENATE(AV1,","),""),AT2),AV1)</f>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]}</v>
       </c>
       <c r="AW2" s="7" t="s">
         <v>1</v>
@@ -1451,18 +1451,18 @@
     </row>
     <row r="3" spans="1:50" s="8" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="10">
         <v>0</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="3" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" s="44">
         <v>1</v>
@@ -1474,10 +1474,10 @@
       <c r="L3" s="43"/>
       <c r="M3" s="53"/>
       <c r="N3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="AD3" s="42" t="str">
         <f t="shared" ref="AD3:AD66" si="2">IF(D3&lt;&gt;"",CONCATENATE(", """,D$1,""": """,D3,""""),"")</f>
-        <v>, "type": "http://www.ontoeng.com/factory#Artifact"</v>
+        <v>, "type": "https://w3id.org/ontoeng/factory#Artifact"</v>
       </c>
       <c r="AE3" s="42" t="str">
         <f t="shared" ref="AE3:AE66" si="3">IF(E3&lt;&gt;"",CONCATENATE(", """,E$1,""": """,E3,""""),"")</f>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="AT3" s="42" t="str">
         <f t="shared" ref="AT3:AT66" si="17">CONCATENATE(AB3,AC3,AD3,AE3,AF3,AG3,AH3,AI3,AJ3,AK3,AL3,AM3,AN3,AO3,AP3,AQ3,AR3,AS3)</f>
-        <v>{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"}</v>
+        <v>{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"}</v>
       </c>
       <c r="AU3" s="11" t="str">
         <f t="shared" ref="AU3:AU66" si="18">IF(B3=1,CONCATENATE(IF(AU2&lt;&gt;"",CONCATENATE(AU2,","),""),"""",A3,""""),AU2)</f>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="AV3" s="6" t="str">
         <f t="shared" ref="AV3:AV66" si="19">IF(A3&lt;&gt;"",CONCATENATE(IF(AV2&lt;&gt;"",CONCATENATE(AV2,","),""),AT3),AV2)</f>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"}</v>
       </c>
       <c r="AW3" s="7" t="s">
         <v>1</v>
@@ -1583,18 +1583,18 @@
     </row>
     <row r="4" spans="1:50" s="8" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="10">
         <v>0</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="3" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G4" s="44">
         <v>1</v>
@@ -1606,10 +1606,10 @@
       <c r="L4" s="43"/>
       <c r="M4" s="53"/>
       <c r="N4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -1633,7 +1633,7 @@
       </c>
       <c r="AD4" s="42" t="str">
         <f t="shared" si="2"/>
-        <v>, "type": "http://www.ontoeng.com/factory#Artifact"</v>
+        <v>, "type": "https://w3id.org/ontoeng/factory#Artifact"</v>
       </c>
       <c r="AE4" s="42" t="str">
         <f t="shared" si="3"/>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="AT4" s="42" t="str">
         <f t="shared" si="17"/>
-        <v>{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"}</v>
+        <v>{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"}</v>
       </c>
       <c r="AU4" s="11" t="str">
         <f t="shared" si="18"/>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="AV4" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"}</v>
       </c>
       <c r="AW4" s="7" t="s">
         <v>1</v>
@@ -1715,18 +1715,18 @@
     </row>
     <row r="5" spans="1:50" s="8" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="10">
         <v>1</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="3" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" s="44">
         <v>1</v>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="AD5" s="42" t="str">
         <f t="shared" si="2"/>
-        <v>, "type": "http://www.ontoeng.com/factory#Artifact"</v>
+        <v>, "type": "https://w3id.org/ontoeng/factory#Artifact"</v>
       </c>
       <c r="AE5" s="42" t="str">
         <f t="shared" si="3"/>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="AT5" s="42" t="str">
         <f t="shared" si="17"/>
-        <v>{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]}</v>
+        <v>{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]}</v>
       </c>
       <c r="AU5" s="11" t="str">
         <f t="shared" si="18"/>
@@ -1838,7 +1838,7 @@
       </c>
       <c r="AV5" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]}</v>
       </c>
       <c r="AW5" s="7" t="s">
         <v>1</v>
@@ -1849,18 +1849,18 @@
     </row>
     <row r="6" spans="1:50" s="7" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="10">
         <v>0</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" s="44">
         <v>1</v>
@@ -1872,10 +1872,10 @@
       <c r="L6" s="43"/>
       <c r="M6" s="53"/>
       <c r="N6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
@@ -1899,7 +1899,7 @@
       </c>
       <c r="AD6" s="42" t="str">
         <f t="shared" si="2"/>
-        <v>, "type": "http://www.ontoeng.com/factory#Artifact"</v>
+        <v>, "type": "https://w3id.org/ontoeng/factory#Artifact"</v>
       </c>
       <c r="AE6" s="42" t="str">
         <f t="shared" si="3"/>
@@ -1962,7 +1962,7 @@
       </c>
       <c r="AT6" s="42" t="str">
         <f t="shared" si="17"/>
-        <v>{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AU6" s="11" t="str">
         <f t="shared" si="18"/>
@@ -1970,7 +1970,7 @@
       </c>
       <c r="AV6" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW6" s="7" t="s">
         <v>1</v>
@@ -1981,18 +1981,18 @@
     </row>
     <row r="7" spans="1:50" s="7" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="10">
         <v>0</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="3" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="44">
         <v>1</v>
@@ -2004,10 +2004,10 @@
       <c r="L7" s="43"/>
       <c r="M7" s="53"/>
       <c r="N7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="AD7" s="42" t="str">
         <f t="shared" si="2"/>
-        <v>, "type": "http://www.ontoeng.com/factory#Artifact"</v>
+        <v>, "type": "https://w3id.org/ontoeng/factory#Artifact"</v>
       </c>
       <c r="AE7" s="42" t="str">
         <f t="shared" si="3"/>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="AT7" s="42" t="str">
         <f t="shared" si="17"/>
-        <v>{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AU7" s="11" t="str">
         <f t="shared" si="18"/>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="AV7" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW7" s="7" t="s">
         <v>1</v>
@@ -2113,18 +2113,18 @@
     </row>
     <row r="8" spans="1:50" s="7" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="10">
         <v>0</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="3" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="44">
         <v>1</v>
@@ -2136,10 +2136,10 @@
       <c r="L8" s="43"/>
       <c r="M8" s="53"/>
       <c r="N8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="AD8" s="42" t="str">
         <f t="shared" si="2"/>
-        <v>, "type": "http://www.ontoeng.com/factory#Artifact"</v>
+        <v>, "type": "https://w3id.org/ontoeng/factory#Artifact"</v>
       </c>
       <c r="AE8" s="42" t="str">
         <f t="shared" si="3"/>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="AT8" s="42" t="str">
         <f t="shared" si="17"/>
-        <v>{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AU8" s="11" t="str">
         <f t="shared" si="18"/>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="AV8" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW8" s="7" t="s">
         <v>1</v>
@@ -2245,18 +2245,18 @@
     </row>
     <row r="9" spans="1:50" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="10">
         <v>0</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="3" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9" s="44">
         <v>1</v>
@@ -2268,10 +2268,10 @@
       <c r="L9" s="43"/>
       <c r="M9" s="53"/>
       <c r="N9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="AD9" s="42" t="str">
         <f t="shared" si="2"/>
-        <v>, "type": "http://www.ontoeng.com/factory#Artifact"</v>
+        <v>, "type": "https://w3id.org/ontoeng/factory#Artifact"</v>
       </c>
       <c r="AE9" s="42" t="str">
         <f t="shared" si="3"/>
@@ -2358,7 +2358,7 @@
       </c>
       <c r="AT9" s="42" t="str">
         <f t="shared" si="17"/>
-        <v>{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AU9" s="11" t="str">
         <f t="shared" si="18"/>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="AV9" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW9" s="7" t="s">
         <v>1</v>
@@ -2377,18 +2377,18 @@
     </row>
     <row r="10" spans="1:50" s="8" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="10">
         <v>0</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="3" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" s="44">
         <v>1</v>
@@ -2400,10 +2400,10 @@
       <c r="L10" s="43"/>
       <c r="M10" s="53"/>
       <c r="N10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="AD10" s="42" t="str">
         <f t="shared" si="2"/>
-        <v>, "type": "http://www.ontoeng.com/factory#Artifact"</v>
+        <v>, "type": "https://w3id.org/ontoeng/factory#Artifact"</v>
       </c>
       <c r="AE10" s="42" t="str">
         <f t="shared" si="3"/>
@@ -2490,7 +2490,7 @@
       </c>
       <c r="AT10" s="42" t="str">
         <f t="shared" si="17"/>
-        <v>{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AU10" s="11" t="str">
         <f t="shared" si="18"/>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="AV10" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW10" s="7" t="s">
         <v>1</v>
@@ -2506,18 +2506,18 @@
     </row>
     <row r="11" spans="1:50" s="8" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="10">
         <v>0</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="3" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11" s="44">
         <v>1</v>
@@ -2529,10 +2529,10 @@
       <c r="L11" s="43"/>
       <c r="M11" s="53"/>
       <c r="N11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="AD11" s="42" t="str">
         <f t="shared" si="2"/>
-        <v>, "type": "http://www.ontoeng.com/factory#Artifact"</v>
+        <v>, "type": "https://w3id.org/ontoeng/factory#Artifact"</v>
       </c>
       <c r="AE11" s="42" t="str">
         <f t="shared" si="3"/>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="AT11" s="42" t="str">
         <f t="shared" si="17"/>
-        <v>{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AU11" s="11" t="str">
         <f t="shared" si="18"/>
@@ -2627,7 +2627,7 @@
       </c>
       <c r="AV11" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW11" s="7" t="s">
         <v>1</v>
@@ -2635,18 +2635,18 @@
     </row>
     <row r="12" spans="1:50" s="8" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="10">
         <v>0</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="3" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G12" s="44">
         <v>1</v>
@@ -2658,10 +2658,10 @@
       <c r="L12" s="43"/>
       <c r="M12" s="53"/>
       <c r="N12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="AD12" s="42" t="str">
         <f t="shared" si="2"/>
-        <v>, "type": "http://www.ontoeng.com/factory#Artifact"</v>
+        <v>, "type": "https://w3id.org/ontoeng/factory#Artifact"</v>
       </c>
       <c r="AE12" s="42" t="str">
         <f t="shared" si="3"/>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="AT12" s="42" t="str">
         <f t="shared" si="17"/>
-        <v>{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AU12" s="11" t="str">
         <f t="shared" si="18"/>
@@ -2756,7 +2756,7 @@
       </c>
       <c r="AV12" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW12" s="7" t="s">
         <v>1</v>
@@ -2764,18 +2764,18 @@
     </row>
     <row r="13" spans="1:50" s="8" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="10">
         <v>0</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="3" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G13" s="44">
         <v>1</v>
@@ -2787,10 +2787,10 @@
       <c r="L13" s="43"/>
       <c r="M13" s="53"/>
       <c r="N13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="AD13" s="42" t="str">
         <f t="shared" si="2"/>
-        <v>, "type": "http://www.ontoeng.com/factory#Artifact"</v>
+        <v>, "type": "https://w3id.org/ontoeng/factory#Artifact"</v>
       </c>
       <c r="AE13" s="42" t="str">
         <f t="shared" si="3"/>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="AT13" s="42" t="str">
         <f t="shared" si="17"/>
-        <v>{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AU13" s="11" t="str">
         <f t="shared" si="18"/>
@@ -2885,7 +2885,7 @@
       </c>
       <c r="AV13" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW13" s="7" t="s">
         <v>1</v>
@@ -3000,7 +3000,7 @@
       </c>
       <c r="AV14" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW14" s="7" t="s">
         <v>1</v>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="AV15" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW15" s="7" t="s">
         <v>1</v>
@@ -3230,7 +3230,7 @@
       </c>
       <c r="AV16" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW16" s="7" t="s">
         <v>1</v>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="AV17" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW17" s="7" t="s">
         <v>1</v>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="AV18" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW18" s="7" t="s">
         <v>1</v>
@@ -3575,7 +3575,7 @@
       </c>
       <c r="AV19" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW19" s="7" t="s">
         <v>1</v>
@@ -3690,7 +3690,7 @@
       </c>
       <c r="AV20" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW20" s="7" t="s">
         <v>1</v>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="AV21" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW21" s="7" t="s">
         <v>1</v>
@@ -3920,7 +3920,7 @@
       </c>
       <c r="AV22" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW22" s="7" t="s">
         <v>1</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="AV23" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW23" s="7" t="s">
         <v>1</v>
@@ -4150,7 +4150,7 @@
       </c>
       <c r="AV24" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW24" s="7" t="s">
         <v>1</v>
@@ -4265,7 +4265,7 @@
       </c>
       <c r="AV25" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW25" s="7" t="s">
         <v>1</v>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="AV26" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW26" s="7" t="s">
         <v>1</v>
@@ -4495,7 +4495,7 @@
       </c>
       <c r="AV27" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW27" s="7" t="s">
         <v>1</v>
@@ -4610,7 +4610,7 @@
       </c>
       <c r="AV28" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW28" s="7" t="s">
         <v>1</v>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="AV29" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW29" s="7" t="s">
         <v>1</v>
@@ -4840,7 +4840,7 @@
       </c>
       <c r="AV30" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW30" s="7" t="s">
         <v>1</v>
@@ -4955,7 +4955,7 @@
       </c>
       <c r="AV31" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW31" s="7" t="s">
         <v>1</v>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="AV32" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW32" s="7" t="s">
         <v>1</v>
@@ -5185,7 +5185,7 @@
       </c>
       <c r="AV33" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW33" s="7" t="s">
         <v>1</v>
@@ -5300,7 +5300,7 @@
       </c>
       <c r="AV34" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW34" s="7" t="s">
         <v>1</v>
@@ -5415,7 +5415,7 @@
       </c>
       <c r="AV35" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW35" s="7" t="s">
         <v>1</v>
@@ -5530,7 +5530,7 @@
       </c>
       <c r="AV36" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW36" s="7" t="s">
         <v>1</v>
@@ -5645,7 +5645,7 @@
       </c>
       <c r="AV37" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW37" s="7" t="s">
         <v>1</v>
@@ -5760,7 +5760,7 @@
       </c>
       <c r="AV38" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW38" s="7" t="s">
         <v>1</v>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="AV39" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW39" s="7" t="s">
         <v>1</v>
@@ -5990,7 +5990,7 @@
       </c>
       <c r="AV40" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW40" s="7" t="s">
         <v>1</v>
@@ -6105,7 +6105,7 @@
       </c>
       <c r="AV41" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW41" s="7" t="s">
         <v>1</v>
@@ -6220,7 +6220,7 @@
       </c>
       <c r="AV42" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW42" s="7" t="s">
         <v>1</v>
@@ -6335,7 +6335,7 @@
       </c>
       <c r="AV43" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW43" s="7" t="s">
         <v>1</v>
@@ -6450,7 +6450,7 @@
       </c>
       <c r="AV44" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW44" s="7" t="s">
         <v>1</v>
@@ -6565,7 +6565,7 @@
       </c>
       <c r="AV45" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW45" s="7" t="s">
         <v>1</v>
@@ -6680,7 +6680,7 @@
       </c>
       <c r="AV46" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW46" s="7" t="s">
         <v>1</v>
@@ -6795,7 +6795,7 @@
       </c>
       <c r="AV47" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW47" s="7" t="s">
         <v>1</v>
@@ -6910,7 +6910,7 @@
       </c>
       <c r="AV48" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW48" s="7" t="s">
         <v>1</v>
@@ -7025,7 +7025,7 @@
       </c>
       <c r="AV49" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW49" s="7" t="s">
         <v>1</v>
@@ -7140,7 +7140,7 @@
       </c>
       <c r="AV50" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW50" s="7" t="s">
         <v>1</v>
@@ -7255,7 +7255,7 @@
       </c>
       <c r="AV51" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW51" s="7" t="s">
         <v>1</v>
@@ -7370,7 +7370,7 @@
       </c>
       <c r="AV52" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW52" s="7" t="s">
         <v>1</v>
@@ -7485,7 +7485,7 @@
       </c>
       <c r="AV53" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW53" s="7" t="s">
         <v>1</v>
@@ -7600,7 +7600,7 @@
       </c>
       <c r="AV54" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW54" s="7" t="s">
         <v>1</v>
@@ -7715,7 +7715,7 @@
       </c>
       <c r="AV55" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW55" s="7" t="s">
         <v>1</v>
@@ -7830,7 +7830,7 @@
       </c>
       <c r="AV56" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW56" s="7" t="s">
         <v>1</v>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="AV57" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW57" s="7" t="s">
         <v>1</v>
@@ -8060,7 +8060,7 @@
       </c>
       <c r="AV58" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW58" s="7" t="s">
         <v>1</v>
@@ -8175,7 +8175,7 @@
       </c>
       <c r="AV59" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW59" s="7" t="s">
         <v>1</v>
@@ -8290,7 +8290,7 @@
       </c>
       <c r="AV60" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW60" s="7" t="s">
         <v>1</v>
@@ -8405,7 +8405,7 @@
       </c>
       <c r="AV61" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW61" s="7" t="s">
         <v>1</v>
@@ -8520,7 +8520,7 @@
       </c>
       <c r="AV62" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW62" s="7" t="s">
         <v>1</v>
@@ -8635,7 +8635,7 @@
       </c>
       <c r="AV63" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW63" s="7" t="s">
         <v>1</v>
@@ -8750,7 +8750,7 @@
       </c>
       <c r="AV64" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW64" s="7" t="s">
         <v>1</v>
@@ -8865,7 +8865,7 @@
       </c>
       <c r="AV65" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW65" s="7" t="s">
         <v>1</v>
@@ -8980,7 +8980,7 @@
       </c>
       <c r="AV66" s="6" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW66" s="7" t="s">
         <v>1</v>
@@ -9095,7 +9095,7 @@
       </c>
       <c r="AV67" s="6" t="str">
         <f t="shared" ref="AV67:AV130" si="39">IF(A67&lt;&gt;"",CONCATENATE(IF(AV66&lt;&gt;"",CONCATENATE(AV66,","),""),AT67),AV66)</f>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW67" s="7" t="s">
         <v>1</v>
@@ -9210,7 +9210,7 @@
       </c>
       <c r="AV68" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW68" s="7" t="s">
         <v>1</v>
@@ -9325,7 +9325,7 @@
       </c>
       <c r="AV69" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW69" s="7" t="s">
         <v>1</v>
@@ -9440,7 +9440,7 @@
       </c>
       <c r="AV70" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW70" s="7" t="s">
         <v>1</v>
@@ -9555,7 +9555,7 @@
       </c>
       <c r="AV71" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW71" s="7" t="s">
         <v>1</v>
@@ -9670,7 +9670,7 @@
       </c>
       <c r="AV72" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW72" s="7" t="s">
         <v>1</v>
@@ -9785,7 +9785,7 @@
       </c>
       <c r="AV73" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW73" s="7" t="s">
         <v>1</v>
@@ -9900,7 +9900,7 @@
       </c>
       <c r="AV74" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW74" s="7" t="s">
         <v>1</v>
@@ -10015,7 +10015,7 @@
       </c>
       <c r="AV75" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW75" s="7" t="s">
         <v>1</v>
@@ -10130,7 +10130,7 @@
       </c>
       <c r="AV76" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW76" s="7" t="s">
         <v>1</v>
@@ -10245,7 +10245,7 @@
       </c>
       <c r="AV77" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW77" s="7" t="s">
         <v>1</v>
@@ -10360,7 +10360,7 @@
       </c>
       <c r="AV78" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW78" s="7" t="s">
         <v>1</v>
@@ -10475,7 +10475,7 @@
       </c>
       <c r="AV79" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW79" s="7" t="s">
         <v>1</v>
@@ -10590,7 +10590,7 @@
       </c>
       <c r="AV80" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW80" s="7" t="s">
         <v>1</v>
@@ -10705,7 +10705,7 @@
       </c>
       <c r="AV81" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW81" s="7" t="s">
         <v>1</v>
@@ -10820,7 +10820,7 @@
       </c>
       <c r="AV82" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW82" s="7" t="s">
         <v>1</v>
@@ -10935,7 +10935,7 @@
       </c>
       <c r="AV83" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW83" s="7" t="s">
         <v>1</v>
@@ -11050,7 +11050,7 @@
       </c>
       <c r="AV84" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW84" s="7" t="s">
         <v>1</v>
@@ -11165,7 +11165,7 @@
       </c>
       <c r="AV85" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW85" s="7" t="s">
         <v>1</v>
@@ -11280,7 +11280,7 @@
       </c>
       <c r="AV86" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW86" s="7" t="s">
         <v>1</v>
@@ -11395,7 +11395,7 @@
       </c>
       <c r="AV87" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW87" s="7" t="s">
         <v>1</v>
@@ -11510,7 +11510,7 @@
       </c>
       <c r="AV88" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW88" s="7" t="s">
         <v>1</v>
@@ -11625,7 +11625,7 @@
       </c>
       <c r="AV89" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW89" s="7" t="s">
         <v>1</v>
@@ -11740,7 +11740,7 @@
       </c>
       <c r="AV90" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW90" s="7" t="s">
         <v>1</v>
@@ -11855,7 +11855,7 @@
       </c>
       <c r="AV91" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW91" s="7" t="s">
         <v>1</v>
@@ -11970,7 +11970,7 @@
       </c>
       <c r="AV92" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW92" s="7" t="s">
         <v>1</v>
@@ -12085,7 +12085,7 @@
       </c>
       <c r="AV93" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW93" s="7" t="s">
         <v>1</v>
@@ -12200,7 +12200,7 @@
       </c>
       <c r="AV94" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW94" s="7" t="s">
         <v>1</v>
@@ -12315,7 +12315,7 @@
       </c>
       <c r="AV95" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW95" s="7" t="s">
         <v>1</v>
@@ -12430,7 +12430,7 @@
       </c>
       <c r="AV96" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW96" s="7" t="s">
         <v>1</v>
@@ -12545,7 +12545,7 @@
       </c>
       <c r="AV97" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW97" s="7" t="s">
         <v>1</v>
@@ -12660,7 +12660,7 @@
       </c>
       <c r="AV98" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW98" s="7" t="s">
         <v>1</v>
@@ -12775,7 +12775,7 @@
       </c>
       <c r="AV99" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW99" s="7" t="s">
         <v>1</v>
@@ -12890,7 +12890,7 @@
       </c>
       <c r="AV100" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW100" s="7" t="s">
         <v>1</v>
@@ -13005,7 +13005,7 @@
       </c>
       <c r="AV101" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW101" s="7" t="s">
         <v>1</v>
@@ -13120,7 +13120,7 @@
       </c>
       <c r="AV102" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW102" s="7" t="s">
         <v>1</v>
@@ -13235,7 +13235,7 @@
       </c>
       <c r="AV103" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW103" s="7" t="s">
         <v>1</v>
@@ -13350,7 +13350,7 @@
       </c>
       <c r="AV104" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW104" s="7" t="s">
         <v>1</v>
@@ -13465,7 +13465,7 @@
       </c>
       <c r="AV105" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW105" s="7" t="s">
         <v>1</v>
@@ -13580,7 +13580,7 @@
       </c>
       <c r="AV106" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW106" s="7" t="s">
         <v>1</v>
@@ -13695,7 +13695,7 @@
       </c>
       <c r="AV107" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW107" s="7" t="s">
         <v>1</v>
@@ -13810,7 +13810,7 @@
       </c>
       <c r="AV108" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW108" s="7" t="s">
         <v>1</v>
@@ -13925,7 +13925,7 @@
       </c>
       <c r="AV109" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW109" s="7" t="s">
         <v>1</v>
@@ -14040,7 +14040,7 @@
       </c>
       <c r="AV110" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW110" s="7" t="s">
         <v>1</v>
@@ -14155,7 +14155,7 @@
       </c>
       <c r="AV111" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW111" s="7" t="s">
         <v>1</v>
@@ -14270,7 +14270,7 @@
       </c>
       <c r="AV112" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW112" s="7" t="s">
         <v>1</v>
@@ -14385,7 +14385,7 @@
       </c>
       <c r="AV113" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW113" s="7" t="s">
         <v>1</v>
@@ -14500,7 +14500,7 @@
       </c>
       <c r="AV114" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW114" s="7" t="s">
         <v>1</v>
@@ -14615,7 +14615,7 @@
       </c>
       <c r="AV115" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW115" s="7" t="s">
         <v>1</v>
@@ -14730,7 +14730,7 @@
       </c>
       <c r="AV116" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW116" s="7" t="s">
         <v>1</v>
@@ -14845,7 +14845,7 @@
       </c>
       <c r="AV117" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW117" s="7" t="s">
         <v>1</v>
@@ -14960,7 +14960,7 @@
       </c>
       <c r="AV118" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW118" s="7" t="s">
         <v>1</v>
@@ -15075,7 +15075,7 @@
       </c>
       <c r="AV119" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW119" s="7" t="s">
         <v>1</v>
@@ -15190,7 +15190,7 @@
       </c>
       <c r="AV120" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW120" s="7" t="s">
         <v>1</v>
@@ -15305,7 +15305,7 @@
       </c>
       <c r="AV121" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW121" s="7" t="s">
         <v>1</v>
@@ -15420,7 +15420,7 @@
       </c>
       <c r="AV122" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW122" s="7" t="s">
         <v>1</v>
@@ -15535,7 +15535,7 @@
       </c>
       <c r="AV123" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW123" s="7" t="s">
         <v>1</v>
@@ -15650,7 +15650,7 @@
       </c>
       <c r="AV124" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW124" s="7" t="s">
         <v>1</v>
@@ -15765,7 +15765,7 @@
       </c>
       <c r="AV125" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW125" s="7" t="s">
         <v>1</v>
@@ -15880,7 +15880,7 @@
       </c>
       <c r="AV126" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW126" s="7" t="s">
         <v>1</v>
@@ -15995,7 +15995,7 @@
       </c>
       <c r="AV127" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW127" s="7" t="s">
         <v>1</v>
@@ -16110,7 +16110,7 @@
       </c>
       <c r="AV128" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW128" s="7" t="s">
         <v>1</v>
@@ -16225,7 +16225,7 @@
       </c>
       <c r="AV129" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW129" s="7" t="s">
         <v>1</v>
@@ -16340,7 +16340,7 @@
       </c>
       <c r="AV130" s="6" t="str">
         <f t="shared" si="39"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW130" s="7" t="s">
         <v>1</v>
@@ -16455,7 +16455,7 @@
       </c>
       <c r="AV131" s="6" t="str">
         <f t="shared" ref="AV131:AV194" si="59">IF(A131&lt;&gt;"",CONCATENATE(IF(AV130&lt;&gt;"",CONCATENATE(AV130,","),""),AT131),AV130)</f>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW131" s="7" t="s">
         <v>1</v>
@@ -16570,7 +16570,7 @@
       </c>
       <c r="AV132" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW132" s="7" t="s">
         <v>1</v>
@@ -16685,7 +16685,7 @@
       </c>
       <c r="AV133" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW133" s="7" t="s">
         <v>1</v>
@@ -16800,7 +16800,7 @@
       </c>
       <c r="AV134" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW134" s="7" t="s">
         <v>1</v>
@@ -16915,7 +16915,7 @@
       </c>
       <c r="AV135" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW135" s="7" t="s">
         <v>1</v>
@@ -17030,7 +17030,7 @@
       </c>
       <c r="AV136" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW136" s="7" t="s">
         <v>1</v>
@@ -17145,7 +17145,7 @@
       </c>
       <c r="AV137" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW137" s="7" t="s">
         <v>1</v>
@@ -17260,7 +17260,7 @@
       </c>
       <c r="AV138" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW138" s="7" t="s">
         <v>1</v>
@@ -17375,7 +17375,7 @@
       </c>
       <c r="AV139" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW139" s="7" t="s">
         <v>1</v>
@@ -17490,7 +17490,7 @@
       </c>
       <c r="AV140" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW140" s="7" t="s">
         <v>1</v>
@@ -17605,7 +17605,7 @@
       </c>
       <c r="AV141" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW141" s="7" t="s">
         <v>1</v>
@@ -17720,7 +17720,7 @@
       </c>
       <c r="AV142" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW142" s="7" t="s">
         <v>1</v>
@@ -17835,7 +17835,7 @@
       </c>
       <c r="AV143" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW143" s="7" t="s">
         <v>1</v>
@@ -17950,7 +17950,7 @@
       </c>
       <c r="AV144" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW144" s="7" t="s">
         <v>1</v>
@@ -18065,7 +18065,7 @@
       </c>
       <c r="AV145" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW145" s="7" t="s">
         <v>1</v>
@@ -18180,7 +18180,7 @@
       </c>
       <c r="AV146" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW146" s="7" t="s">
         <v>1</v>
@@ -18295,7 +18295,7 @@
       </c>
       <c r="AV147" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW147" s="7" t="s">
         <v>1</v>
@@ -18410,7 +18410,7 @@
       </c>
       <c r="AV148" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW148" s="7" t="s">
         <v>1</v>
@@ -18525,7 +18525,7 @@
       </c>
       <c r="AV149" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW149" s="7" t="s">
         <v>1</v>
@@ -18640,7 +18640,7 @@
       </c>
       <c r="AV150" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW150" s="7" t="s">
         <v>1</v>
@@ -18755,7 +18755,7 @@
       </c>
       <c r="AV151" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW151" s="7" t="s">
         <v>1</v>
@@ -18870,7 +18870,7 @@
       </c>
       <c r="AV152" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW152" s="7" t="s">
         <v>1</v>
@@ -18985,7 +18985,7 @@
       </c>
       <c r="AV153" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW153" s="7" t="s">
         <v>1</v>
@@ -19100,7 +19100,7 @@
       </c>
       <c r="AV154" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW154" s="7" t="s">
         <v>1</v>
@@ -19215,7 +19215,7 @@
       </c>
       <c r="AV155" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW155" s="7" t="s">
         <v>1</v>
@@ -19330,7 +19330,7 @@
       </c>
       <c r="AV156" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW156" s="7" t="s">
         <v>1</v>
@@ -19445,7 +19445,7 @@
       </c>
       <c r="AV157" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW157" s="7" t="s">
         <v>1</v>
@@ -19560,7 +19560,7 @@
       </c>
       <c r="AV158" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW158" s="7" t="s">
         <v>1</v>
@@ -19675,7 +19675,7 @@
       </c>
       <c r="AV159" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW159" s="7" t="s">
         <v>1</v>
@@ -19790,7 +19790,7 @@
       </c>
       <c r="AV160" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW160" s="7" t="s">
         <v>1</v>
@@ -19905,7 +19905,7 @@
       </c>
       <c r="AV161" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW161" s="7" t="s">
         <v>1</v>
@@ -20020,7 +20020,7 @@
       </c>
       <c r="AV162" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW162" s="7" t="s">
         <v>1</v>
@@ -20135,7 +20135,7 @@
       </c>
       <c r="AV163" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW163" s="7" t="s">
         <v>1</v>
@@ -20250,7 +20250,7 @@
       </c>
       <c r="AV164" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW164" s="7" t="s">
         <v>1</v>
@@ -20365,7 +20365,7 @@
       </c>
       <c r="AV165" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW165" s="7" t="s">
         <v>1</v>
@@ -20480,7 +20480,7 @@
       </c>
       <c r="AV166" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW166" s="7" t="s">
         <v>1</v>
@@ -20595,7 +20595,7 @@
       </c>
       <c r="AV167" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW167" s="7" t="s">
         <v>1</v>
@@ -20710,7 +20710,7 @@
       </c>
       <c r="AV168" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW168" s="7" t="s">
         <v>1</v>
@@ -20825,7 +20825,7 @@
       </c>
       <c r="AV169" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW169" s="7" t="s">
         <v>1</v>
@@ -20940,7 +20940,7 @@
       </c>
       <c r="AV170" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW170" s="7" t="s">
         <v>1</v>
@@ -21055,7 +21055,7 @@
       </c>
       <c r="AV171" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW171" s="7" t="s">
         <v>1</v>
@@ -21170,7 +21170,7 @@
       </c>
       <c r="AV172" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW172" s="7" t="s">
         <v>1</v>
@@ -21285,7 +21285,7 @@
       </c>
       <c r="AV173" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW173" s="7" t="s">
         <v>1</v>
@@ -21400,7 +21400,7 @@
       </c>
       <c r="AV174" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW174" s="7" t="s">
         <v>1</v>
@@ -21515,7 +21515,7 @@
       </c>
       <c r="AV175" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW175" s="7" t="s">
         <v>1</v>
@@ -21630,7 +21630,7 @@
       </c>
       <c r="AV176" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW176" s="7" t="s">
         <v>1</v>
@@ -21745,7 +21745,7 @@
       </c>
       <c r="AV177" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW177" s="7" t="s">
         <v>1</v>
@@ -21860,7 +21860,7 @@
       </c>
       <c r="AV178" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW178" s="7" t="s">
         <v>1</v>
@@ -21975,7 +21975,7 @@
       </c>
       <c r="AV179" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW179" s="7" t="s">
         <v>1</v>
@@ -22090,7 +22090,7 @@
       </c>
       <c r="AV180" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW180" s="7" t="s">
         <v>1</v>
@@ -22205,7 +22205,7 @@
       </c>
       <c r="AV181" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW181" s="7" t="s">
         <v>1</v>
@@ -22320,7 +22320,7 @@
       </c>
       <c r="AV182" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW182" s="7" t="s">
         <v>1</v>
@@ -22435,7 +22435,7 @@
       </c>
       <c r="AV183" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW183" s="7" t="s">
         <v>1</v>
@@ -22550,7 +22550,7 @@
       </c>
       <c r="AV184" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW184" s="7" t="s">
         <v>1</v>
@@ -22665,7 +22665,7 @@
       </c>
       <c r="AV185" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW185" s="7" t="s">
         <v>1</v>
@@ -22780,7 +22780,7 @@
       </c>
       <c r="AV186" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW186" s="7" t="s">
         <v>1</v>
@@ -22895,7 +22895,7 @@
       </c>
       <c r="AV187" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW187" s="7" t="s">
         <v>1</v>
@@ -23010,7 +23010,7 @@
       </c>
       <c r="AV188" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW188" s="7" t="s">
         <v>1</v>
@@ -23125,7 +23125,7 @@
       </c>
       <c r="AV189" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW189" s="7" t="s">
         <v>1</v>
@@ -23240,7 +23240,7 @@
       </c>
       <c r="AV190" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW190" s="7" t="s">
         <v>1</v>
@@ -23355,7 +23355,7 @@
       </c>
       <c r="AV191" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW191" s="7" t="s">
         <v>1</v>
@@ -23470,7 +23470,7 @@
       </c>
       <c r="AV192" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW192" s="7" t="s">
         <v>1</v>
@@ -23585,7 +23585,7 @@
       </c>
       <c r="AV193" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW193" s="7" t="s">
         <v>1</v>
@@ -23700,7 +23700,7 @@
       </c>
       <c r="AV194" s="6" t="str">
         <f t="shared" si="59"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW194" s="7" t="s">
         <v>1</v>
@@ -23815,7 +23815,7 @@
       </c>
       <c r="AV195" s="6" t="str">
         <f t="shared" ref="AV195:AV201" si="79">IF(A195&lt;&gt;"",CONCATENATE(IF(AV194&lt;&gt;"",CONCATENATE(AV194,","),""),AT195),AV194)</f>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW195" s="7" t="s">
         <v>1</v>
@@ -23930,7 +23930,7 @@
       </c>
       <c r="AV196" s="6" t="str">
         <f t="shared" si="79"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW196" s="7" t="s">
         <v>1</v>
@@ -24045,7 +24045,7 @@
       </c>
       <c r="AV197" s="6" t="str">
         <f t="shared" si="79"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW197" s="7" t="s">
         <v>1</v>
@@ -24160,7 +24160,7 @@
       </c>
       <c r="AV198" s="6" t="str">
         <f t="shared" si="79"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW198" s="7" t="s">
         <v>1</v>
@@ -24275,7 +24275,7 @@
       </c>
       <c r="AV199" s="6" t="str">
         <f t="shared" si="79"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW199" s="7" t="s">
         <v>1</v>
@@ -24390,7 +24390,7 @@
       </c>
       <c r="AV200" s="6" t="str">
         <f t="shared" si="79"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW200" s="7" t="s">
         <v>1</v>
@@ -24505,7 +24505,7 @@
       </c>
       <c r="AV201" s="6" t="str">
         <f t="shared" si="79"/>
-        <v>{"id": "Hinge_1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "http://www.ontoeng.com/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
+        <v>{"id": "Hinge_1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [0,0,0]},{"id": "Hinge_1.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_1.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_1", "parentObject": "Hinge_1"},{"id": "Hinge_2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb", "unit": 1}], "position": [100,0,0]},{"id": "Hinge_2.Box", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Box", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Connector2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Connector2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Hook", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Hook", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-1", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-1", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-2", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-2", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Pin1-3", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Pin1-3", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"},{"id": "Hinge_2.Spring", "type": "https://w3id.org/ontoeng/factory#Artifact", "representations": [{"file": "Hinge.glb#Spring", "unit": 1}], "placementRelTo": "Hinge_2", "parentObject": "Hinge_2"}</v>
       </c>
       <c r="AW201" s="7" t="s">
         <v>1</v>
